--- a/output/notes_RESF_generees/tables/Tableau_RESF_2024_1.xlsx
+++ b/output/notes_RESF_generees/tables/Tableau_RESF_2024_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,19 +434,15 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Taux de croissance annuel (en %)</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Programme de stabilité 2023-2027</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Projet de loi de finances 2024</t>
+          <t>2024</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr"/>
@@ -454,17 +450,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>----------------------------------</t>
+          <t>:--</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>----------------------------------</t>
+          <t>:--:</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>--------------------------------</t>
+          <t>:--:</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -472,17 +468,17 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>PIB</t>
+          <t>PIB (PLF 2024)</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1,0 (2023)</t>
+          <t>1,0%</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1,4 (2024)</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -490,17 +486,17 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Consommation des ménages</t>
+          <t>Indice des prix à la consommation harmonisé (PLF 2024)</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0,2 (2023)</t>
+          <t>5,7%</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>1,8 (2024)</t>
+          <t>2,7%</t>
         </is>
       </c>
       <c r="D4" t="inlineStr"/>
@@ -508,362 +504,208 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>FBCF totale</t>
+          <t>Solde public (en % du PIB) (PLF 2024)</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2,1 (2023)</t>
+          <t>-4,9%</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0,3 (2024)</t>
+          <t>-4,4%</t>
         </is>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Dont entreprises non financières</t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3,8 (2023)</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0,9 (2024)</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dont administrations publiques</t>
+          <t>:--</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3,4 (2023)</t>
+          <t>:--:</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>1,3 (2024)</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>:--:</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>:--:</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>En % du PIB, sauf mention contraire</t>
+          <t>Dépense publique hors crédits d'impôt (en % du PIB)</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>57,7%</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>55,9%</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2024</t>
+          <t>55,3%</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>------------------------------------</t>
+          <t>Progression en volume des dépenses publiques</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>-----</t>
+          <t>-1,1%</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>-----</t>
+          <t>-1,3%</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>-----</t>
+          <t>0,5%</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Dépense publique hors crédits d'impôt</t>
+          <t>Prélèvements obligatoires (en % du PIB)</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>57,7</t>
+          <t>45,4%</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>55,9</t>
+          <t>44,0%</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>55,3</t>
+          <t>44,1%</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Progression en valeur (%)</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
-          <t>4,1</t>
+          <t>2022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>3,4</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3,0</t>
+          <t>2024</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Progression en volume (%)</t>
+          <t>:--</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>-1,1</t>
+          <t>:--:</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-1,3</t>
+          <t>:--:</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>:--:</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Progression en volume hors soutien d'urgence et relance (%)</t>
+          <t>Dette publique totale (en % du PIB)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2,5</t>
+          <t>111,8%</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>109,7%</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>109,7%</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>En % du PIB, sauf mention contraire</t>
+          <t>Dette publique hors soutien à la zone euro (en % du PIB)</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2022</t>
+          <t>109,3%</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>2023</t>
+          <t>107,4%</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>------------------------------------</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Prélèvements obligatoires</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>45,4</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>44,0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>44,1</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Taux de prélèvements obligatoires corrigé des effets du bouclier tarifaire</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>45,6</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>44,4</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>44,4</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>En % du PIB, sauf mention contraire</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>------------------------------------</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>-----</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dette publique totale</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>111,8</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>109,7</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>109,7</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Dette publique hors soutien à la zone euro</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>109,3</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>107,4</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>107,6</t>
+          <t>107,6%</t>
         </is>
       </c>
     </row>
